--- a/media/pattern/data.xlsx
+++ b/media/pattern/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Селлер</t>
   </si>
@@ -31,148 +31,31 @@
     <t>%</t>
   </si>
   <si>
-    <t>СберМаркет</t>
-  </si>
-  <si>
-    <t>fdrgfg</t>
-  </si>
-  <si>
-    <t>Репутационный маркетинг</t>
-  </si>
-  <si>
-    <t>ВидеоСеть ИМХО</t>
-  </si>
-  <si>
-    <t>MyTarget</t>
-  </si>
-  <si>
-    <t>Soloway</t>
-  </si>
-  <si>
-    <t>Максима Телеком ( Qvant)wi-fi.ru</t>
-  </si>
-  <si>
-    <t>ozon</t>
-  </si>
-  <si>
-    <t>Блоггеры</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>40000</t>
-  </si>
-  <si>
-    <t>5489</t>
-  </si>
-  <si>
-    <t>59888</t>
-  </si>
-  <si>
-    <t>5465649</t>
-  </si>
-  <si>
-    <t>454368889</t>
-  </si>
-  <si>
-    <t>675</t>
-  </si>
-  <si>
-    <t>6767</t>
-  </si>
-  <si>
-    <t>88888</t>
-  </si>
-  <si>
-    <t>677</t>
-  </si>
-  <si>
-    <t>56776877</t>
-  </si>
-  <si>
-    <t>565</t>
-  </si>
-  <si>
-    <t>180000.0</t>
-  </si>
-  <si>
-    <t>635.625</t>
-  </si>
-  <si>
-    <t>540.0</t>
-  </si>
-  <si>
-    <t>600.048</t>
-  </si>
-  <si>
-    <t>273.0</t>
-  </si>
-  <si>
-    <t>450000.0</t>
-  </si>
-  <si>
-    <t>208.333</t>
-  </si>
-  <si>
-    <t>65767</t>
-  </si>
-  <si>
-    <t>1.41</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>300.56</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>88.9</t>
-  </si>
-  <si>
-    <t>4.03</t>
-  </si>
-  <si>
-    <t>506.26</t>
-  </si>
-  <si>
-    <t>30.77</t>
-  </si>
-  <si>
-    <t>0.12</t>
+    <t>jcat</t>
+  </si>
+  <si>
+    <t>ОТМ Network</t>
+  </si>
+  <si>
+    <t>TikTok</t>
+  </si>
+  <si>
+    <t>Cats</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>202472.0</t>
+  </si>
+  <si>
+    <t>1500.4499999999998</t>
+  </si>
+  <si>
+    <t>1470.0</t>
+  </si>
+  <si>
+    <t>789</t>
   </si>
 </sst>
 </file>
@@ -530,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,16 +441,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -575,16 +458,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -592,16 +475,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -609,118 +492,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/media/pattern/data.xlsx
+++ b/media/pattern/data.xlsx
@@ -1,87 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
-  <si>
-    <t>Селлер</t>
-  </si>
-  <si>
-    <t>Сайт</t>
-  </si>
-  <si>
-    <t>План, до НДС/рубли</t>
-  </si>
-  <si>
-    <t>Факт, клиентские суммы, до НДС/рубли</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>jcat</t>
-  </si>
-  <si>
-    <t>ОТМ Network</t>
-  </si>
-  <si>
-    <t>TikTok</t>
-  </si>
-  <si>
-    <t>Cats</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>202472.0</t>
-  </si>
-  <si>
-    <t>1500.4499999999998</t>
-  </si>
-  <si>
-    <t>1470.0</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -96,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -412,99 +420,1397 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Селлер</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Сайт</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>План, до НДС/рубли</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Факт, клиентские суммы, до НДС/рубли</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>СберМаркет</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>40000</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>fdrgfg</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5489</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Репутационный маркетинг</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>59888</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>180000.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>300.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ВидеоСеть ИМХО</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5465649</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>635.625</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MyTarget</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>454368889</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>540.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Soloway</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>600.048</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Максима Телеком ( Qvant)wi-fi.ru</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>6767</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>СберМаркет</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>88888</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>450000.0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>506.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ozon</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>208.333</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Максима Телеком ( Qvant)wi-fi.ru</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Максима Телеком ( Qvant)wi-fi.ru</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>43554</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>273.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>СберМаркет</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>СберМаркет</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1950000.0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ozon</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ozon</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1237.3333333333333</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Репутационный маркетинг</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Репутационный маркетинг</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>540000.0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ВидеоСеть ИМХО</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ВидеоСеть ИМХО</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8686.875</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MyTarget</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MyTarget</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7020.0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Native Roll</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Native Roll</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>999999.0000000001</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Soloway</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Soloway</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7800.623999999998</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Segmento</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Segmento</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8000000.0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Yandex.ru</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Yandex.ru</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3450000.0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Яндекс Дзен</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Яндекс Дзен</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1550000.0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>gdeetotdom.ru</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>gdeetotdom.ru</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>704000.0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>move.ru</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>move.ru</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>840000.0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>jcat</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>jcat</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>202472.0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>mirkvartir.ru</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>mirkvartir.ru</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>796000.0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>novostroy-m.ru</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>novostroy-m.ru</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1116664.0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>vsenovostroyki.ru</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>vsenovostroyki.ru</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>666664.0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>pronovostroy.ru</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>pronovostroy.ru</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>874000.0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>pronovostroy.ru БОНУС</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>pronovostroy.ru БОНУС</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Jcat</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Jcat</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>437636.0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>elitnoe.ru</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>elitnoe.ru</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>740000.0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>premium.estate</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>premium.estate</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1000000.0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>lifedeluxe.ru</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>lifedeluxe.ru</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>516000.0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>lifedeluxe.ru Бонус</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>lifedeluxe.ru Бонус</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Максима Телеком ( Qvant)wi-fi.ru</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Максима Телеком ( Qvant)wi-fi.ru</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1500.0</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>YouTube+GDN</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>YouTube+GDN</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7843353.0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2739585.0</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Пакет XL Flex Rambler&amp;Сo Desktop+Mobile Reach Video PMP</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Пакет XL Flex Rambler&amp;Сo Desktop+Mobile Reach Video PMP</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1499.85</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>GPMD</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>GPMD</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3375.0</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Smart TVGPMD</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Smart TVGPMD</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2970.0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Smart TVИМХО</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Smart TVИМХО</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2535000.0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Facebook / Instagram</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Facebook / Instagram</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1024.08</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Вконтакте</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Вконтакте</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1680.0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1470.0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ОТМ Network</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ОТМ Network</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1500.4499999999998</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Mediatoday</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Mediatoday</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>630.0</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PunchMedia Group</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>PunchMedia Group</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Cats</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Cats</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Cats, пакет "Мультивидео"</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Cats, пакет "Мультивидео"</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/media/pattern/data.xlsx
+++ b/media/pattern/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,7 +775,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1950000.0</t>
+          <t>3150000.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1237.3333333333333</t>
+          <t>2060.5333333333333</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>540000.0</t>
+          <t>900000.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8686.875</t>
+          <t>9534.375</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7020.0</t>
+          <t>7560.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7800.623999999998</t>
+          <t>8400.671999999999</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3450000.0</t>
+          <t>8050000.0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1550000.0</t>
+          <t>2650000.0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>704000.0</t>
+          <t>1056000.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>840000.0</t>
+          <t>1260000.0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>202472.0</t>
+          <t>303708.0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>796000.0</t>
+          <t>1194000.0</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1116664.0</t>
+          <t>1674996.0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>666664.0</t>
+          <t>999996.0</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>874000.0</t>
+          <t>1311000.0</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>437636.0</t>
+          <t>656454.0</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>740000.0</t>
+          <t>1110000.0</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1000000.0</t>
+          <t>1500000.0</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>516000.0</t>
+          <t>774000.0</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>7843353.0</t>
+          <t>7845967.451</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2739585.0</t>
+          <t>3652780.0</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3375.0</t>
+          <t>4125.0</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1024.08</t>
+          <t>1365.44</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1680.0</t>
+          <t>2240.0</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1470.0</t>
+          <t>1960.0</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1500.4499999999998</t>
+          <t>2000.6</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>630.0</t>
+          <t>3150.0</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1801,10 +1801,361 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Блоггеры</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Максима Телеком ( Qvant)wi-fi.ru</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Блоггеры</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Максима Телеком ( Qvant)wi-fi.ru</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Блоггеры</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Максима Телеком ( Qvant)wi-fi.ru</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Smart TVGPMD</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Smart TVGPMD</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Smart TVИМХО</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>845000.0</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Блоггеры</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Максима Телеком ( Qvant)wi-fi.ru</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Пакет XL Flex Rambler&amp;Сo Desktop+Mobile Reach Video PMP</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1350.0</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Пакет XL Flex Rambler&amp;Сo Desktop+Mobile Reach Video PMP</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1350.0</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>None</t>
         </is>
